--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -444,11 +444,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -467,6 +464,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI2" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,172 +1147,172 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AB7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
-      <c r="B8" s="6">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4" t="s">
+      <c r="B8" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AJ8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1326,13 +1327,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G135">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K135">
       <formula1>Hidden_210</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE135">
       <formula1>Hidden_330</formula1>
     </dataValidation>
   </dataValidations>
@@ -1345,27 +1346,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1378,17 +1384,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1401,42 +1412,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1449,7 +1465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1482,16 +1500,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>111</v>
       </c>
     </row>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -456,31 +456,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD74"/>
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,38 +839,38 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:38" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1105,46 +1105,46 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1263,14 +1263,14 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
+      <c r="A8" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1307,10 +1307,10 @@
         <v>112</v>
       </c>
       <c r="AJ8" s="4">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AK8" s="4">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>113</v>
@@ -1327,13 +1327,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G135">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G71">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K135">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K71">
       <formula1>Hidden_210</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE135">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE71">
       <formula1>Hidden_330</formula1>
     </dataValidation>
   </dataValidations>
@@ -1356,22 +1356,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1394,12 +1394,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1422,37 +1422,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,16 +1500,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>111</v>
       </c>
     </row>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,16 +470,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +788,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,21 +856,21 @@
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:38" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1267,10 +1267,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1307,10 +1307,10 @@
         <v>112</v>
       </c>
       <c r="AJ8" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AK8" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>113</v>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="AI2" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,10 +1267,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="4">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1307,10 +1307,10 @@
         <v>112</v>
       </c>
       <c r="AJ8" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AK8" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>113</v>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI2" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,10 +1267,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1307,10 +1307,10 @@
         <v>112</v>
       </c>
       <c r="AJ8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AK8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>113</v>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -541,7 +536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI2" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,13 +1259,13 @@
     </row>
     <row r="8" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1307,10 +1302,10 @@
         <v>112</v>
       </c>
       <c r="AJ8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AK8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>113</v>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -365,7 +370,7 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica de Pachuca, no cuenta con recomendaciones del organismo público garante de los Derechos Humanos, conforme lo disponen los Artículos 115 y 120 de la Ley de Derechos Humanos del Estado de Hidalgo.</t>
+    <t>La Universidad Politécnica de Pachuca, no cuenta con las recomendaciones de organismos garantes de derechos humanos.</t>
   </si>
 </sst>
 </file>
@@ -445,9 +450,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -459,6 +461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -536,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="AJ2" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +830,7 @@
     <col min="35" max="35" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="52.28515625" customWidth="1"/>
+    <col min="38" max="38" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
@@ -1257,57 +1262,57 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2022</v>
       </c>
-      <c r="B8" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AJ8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AL8" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1351,22 +1356,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1389,12 +1394,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1417,37 +1422,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1495,16 +1500,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>111</v>
       </c>
     </row>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -377,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -398,6 +393,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -417,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -440,42 +442,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -541,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,21 +789,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ2" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="82.28515625" bestFit="1" customWidth="1"/>
@@ -830,7 +832,7 @@
     <col min="35" max="35" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="61.7109375" customWidth="1"/>
+    <col min="38" max="38" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
@@ -839,38 +841,38 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1105,214 +1107,214 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AK7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AL7" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2" t="s">
+      <c r="B8" s="8">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44834</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AJ8" s="8">
+        <v>44844</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>44844</v>
+      </c>
+      <c r="AL8" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1327,13 +1329,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G71">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G18">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K71">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K18">
       <formula1>Hidden_210</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE71">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE18">
       <formula1>Hidden_330</formula1>
     </dataValidation>
   </dataValidations>
@@ -1346,32 +1348,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1384,22 +1381,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1412,47 +1404,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1465,9 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1500,16 +1485,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>111</v>
       </c>
     </row>

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -442,15 +442,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -463,6 +454,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -471,13 +468,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -790,7 +781,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,33 +832,33 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1107,46 +1098,46 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1264,57 +1255,57 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="8">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="8">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="s">
+      <c r="B8" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="8">
-        <v>44844</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>44844</v>
-      </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AJ8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="AL8" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1329,18 +1320,17 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G201">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
       <formula1>Hidden_210</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE201">
       <formula1>Hidden_330</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -446,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -454,6 +459,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -461,7 +467,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -502,39 +508,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,166 +619,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -781,14 +763,14 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -823,7 +805,7 @@
     <col min="35" max="35" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="48.85546875" customWidth="1"/>
+    <col min="38" max="38" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
@@ -832,38 +814,38 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1098,46 +1080,46 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1255,15 +1237,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44926</v>
+    <row r="8" spans="1:38" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45016</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1296,16 +1278,16 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="3" t="s">
+      <c r="AI8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="AL8" s="5" t="s">
+      <c r="AJ8" s="5">
+        <v>45026</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>45026</v>
+      </c>
+      <c r="AL8" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1331,6 +1313,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f35_aUPPachuca.xlsx
+++ b/xlsx/a69_f35_aUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA14F74-E2A0-42BE-BC50-B9432365E1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,10 @@
     <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
     <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
     <sheet name="Tabla_395300" sheetId="5" r:id="rId5"/>
+    <sheet name="Hidden_1_Tabla_395300" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Hidden_1_Tabla_3953004">Hidden_1_Tabla_395300!$A$1:$A$2</definedName>
     <definedName name="Hidden_16">Hidden_1!$A$1:$A$4</definedName>
     <definedName name="Hidden_210">Hidden_2!$A$1:$A$2</definedName>
     <definedName name="Hidden_330">Hidden_3!$A$1:$A$7</definedName>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <t>46663</t>
   </si>
@@ -355,6 +358,9 @@
     <t>51207</t>
   </si>
   <si>
+    <t>77179</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -365,6 +371,15 @@
   </si>
   <si>
     <t>Segundo apellido</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
   <si>
     <t>Abogado General (UPP)</t>
@@ -376,8 +391,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -390,13 +405,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -404,6 +417,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -451,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -467,17 +486,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,39 +530,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,6 +595,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -608,6 +647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,158 +675,182 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="AG2" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -805,7 +885,7 @@
     <col min="35" max="35" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="48" customWidth="1"/>
+    <col min="38" max="38" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
@@ -830,22 +910,22 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1237,15 +1317,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
       <c r="B8" s="5">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="5">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1279,16 +1359,16 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AJ8" s="5">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="AK8" s="5">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1302,23 +1382,23 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G84" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K84" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_210</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE8:AE84" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_330</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1351,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1374,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1422,8 +1502,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
@@ -1433,9 +1513,10 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -1445,8 +1526,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -1456,19 +1540,53 @@
       <c r="D2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E201" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>Hidden_1_Tabla_3953004</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
